--- a/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>3096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8718</v>
+        <v>8589</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009711265011839172</v>
+        <v>0.009711265011839174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002572356482243546</v>
+        <v>0.00255812786758478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02734224484779174</v>
+        <v>0.02693814441436129</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -809,19 +809,19 @@
         <v>6109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10485</v>
+        <v>11148</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01932885257168416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01019377842449048</v>
+        <v>0.01019065852180076</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03317245505338667</v>
+        <v>0.03527208765753148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -830,19 +830,19 @@
         <v>9205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5102</v>
+        <v>5144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15490</v>
+        <v>16542</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01449896787110787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00803530902772346</v>
+        <v>0.008101523072075113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02439658110697038</v>
+        <v>0.02605496749855556</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>54490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43354</v>
+        <v>42273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69785</v>
+        <v>69425</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1708993155105503</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1359723242272111</v>
+        <v>0.1325814089756275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.218869136199118</v>
+        <v>0.2177388128038831</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>101</v>
@@ -880,19 +880,19 @@
         <v>57621</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46974</v>
+        <v>47885</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73009</v>
+        <v>69827</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1823111704821994</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1486230706756009</v>
+        <v>0.1515060595581097</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2309951280194637</v>
+        <v>0.220928620381291</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>161</v>
@@ -901,19 +901,19 @@
         <v>112112</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95983</v>
+        <v>95582</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130904</v>
+        <v>130317</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1765802173310277</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1511768606017062</v>
+        <v>0.150544456437345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2061786329331397</v>
+        <v>0.2052537289751053</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>261258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>246364</v>
+        <v>245919</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272893</v>
+        <v>274136</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8193894194776105</v>
+        <v>0.8193894194776106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7726775095300438</v>
+        <v>0.7712792399820269</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8558809075517098</v>
+        <v>0.8597777858849438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>425</v>
@@ -951,19 +951,19 @@
         <v>252330</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237299</v>
+        <v>239507</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>263059</v>
+        <v>262621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7983599769461165</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7508022672384886</v>
+        <v>0.757787214046744</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8323044278162367</v>
+        <v>0.8309173127651736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>693</v>
@@ -972,19 +972,19 @@
         <v>513589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>494135</v>
+        <v>494963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>529741</v>
+        <v>530188</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8089208147978645</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7782812967114729</v>
+        <v>0.779584320931363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8343606906881761</v>
+        <v>0.835064988173127</v>
       </c>
     </row>
     <row r="8">
@@ -1076,19 +1076,19 @@
         <v>9405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4148</v>
+        <v>4257</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18671</v>
+        <v>17949</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01779989374944345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00785019287316965</v>
+        <v>0.00805725631347835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0353345141821601</v>
+        <v>0.03396814377040921</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1097,19 +1097,19 @@
         <v>7656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4021</v>
+        <v>4018</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12902</v>
+        <v>13602</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01407328384627423</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00739133992587197</v>
+        <v>0.007385402630121518</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02371817848866964</v>
+        <v>0.02500387279714034</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1118,19 +1118,19 @@
         <v>17061</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10358</v>
+        <v>10368</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27228</v>
+        <v>27330</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01590950147508328</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009658898609731232</v>
+        <v>0.009667915012046613</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02538958677497208</v>
+        <v>0.02548507906234629</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>8910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3735</v>
+        <v>4287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16329</v>
+        <v>16464</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01686234245905097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007067577064240886</v>
+        <v>0.008113520202086201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03090181693076508</v>
+        <v>0.03115894542470136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1168,19 +1168,19 @@
         <v>19147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13027</v>
+        <v>12380</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27245</v>
+        <v>26257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03519796059122748</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02394716223689298</v>
+        <v>0.02275742206088137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05008387775782476</v>
+        <v>0.04826758815180689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1189,19 +1189,19 @@
         <v>28058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20489</v>
+        <v>19604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39391</v>
+        <v>38898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02616342622239511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01910584597081777</v>
+        <v>0.01828053816252269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03673198422489601</v>
+        <v>0.03627224282747364</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>136001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111742</v>
+        <v>112241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>161857</v>
+        <v>163641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2573807511782913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2114716415852711</v>
+        <v>0.2124151918408965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3063144525357933</v>
+        <v>0.3096909451205566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -1239,19 +1239,19 @@
         <v>166223</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146289</v>
+        <v>146747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185766</v>
+        <v>187170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3055622153644867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2689176227290657</v>
+        <v>0.269759612683871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3414874849950122</v>
+        <v>0.344067170897278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -1260,19 +1260,19 @@
         <v>302224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272099</v>
+        <v>272472</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>336013</v>
+        <v>336301</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2818216961743013</v>
+        <v>0.2818216961743014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2537303008061557</v>
+        <v>0.2540782911247687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3133298993570983</v>
+        <v>0.3135983795763085</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>374086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348450</v>
+        <v>346930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>398972</v>
+        <v>398621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7079570126132143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6594415087794643</v>
+        <v>0.6565650888458031</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7550534507540207</v>
+        <v>0.7543902472137166</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>445</v>
@@ -1310,19 +1310,19 @@
         <v>350965</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>329639</v>
+        <v>328847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>372242</v>
+        <v>370342</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6451665401980117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6059624856028385</v>
+        <v>0.604506492976125</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6842790551053688</v>
+        <v>0.680784900434815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>710</v>
@@ -1331,19 +1331,19 @@
         <v>725052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>688471</v>
+        <v>690120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>754677</v>
+        <v>756659</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6761053761282204</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.641994142831573</v>
+        <v>0.6435311389899947</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7037306053799463</v>
+        <v>0.705578507488522</v>
       </c>
     </row>
     <row r="13">
@@ -1435,19 +1435,19 @@
         <v>5788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2225</v>
+        <v>2643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10251</v>
+        <v>11001</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0184272701521452</v>
+        <v>0.01842727015214521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007085146363825178</v>
+        <v>0.008414457075261601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0326367988313657</v>
+        <v>0.03502706866485855</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1456,19 +1456,19 @@
         <v>12693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8188</v>
+        <v>8578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18881</v>
+        <v>18790</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03575450960292235</v>
+        <v>0.03575450960292236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02306495326248936</v>
+        <v>0.02416429945102346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05318462166497928</v>
+        <v>0.05292818867439084</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1477,19 +1477,19 @@
         <v>18481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12446</v>
+        <v>12731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27200</v>
+        <v>26072</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02762078999813448</v>
+        <v>0.02762078999813449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0186010830343593</v>
+        <v>0.01902769657794917</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04065289013682893</v>
+        <v>0.03896678285993847</v>
       </c>
     </row>
     <row r="15">
@@ -1506,19 +1506,19 @@
         <v>14928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9854</v>
+        <v>9041</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23144</v>
+        <v>22735</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04752872668872735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03137341908144693</v>
+        <v>0.02878593827023567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07368782461078198</v>
+        <v>0.07238668541732264</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -1527,19 +1527,19 @@
         <v>29370</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21682</v>
+        <v>21699</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38505</v>
+        <v>38307</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08273199428433883</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06107588916573451</v>
+        <v>0.06112440845426544</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1084644856276557</v>
+        <v>0.1079055084351804</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>70</v>
@@ -1548,19 +1548,19 @@
         <v>44298</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>34632</v>
+        <v>34543</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55282</v>
+        <v>55151</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.06620694373555239</v>
+        <v>0.06620694373555241</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05175974432601712</v>
+        <v>0.05162716960217904</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08262311155488343</v>
+        <v>0.08242717728055891</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>48188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36354</v>
+        <v>38438</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59853</v>
+        <v>61355</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1534249078456511</v>
+        <v>0.1534249078456512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1157459942629183</v>
+        <v>0.1223816851134265</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1905663091271174</v>
+        <v>0.1953487973430907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -1598,19 +1598,19 @@
         <v>86894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74839</v>
+        <v>74608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101189</v>
+        <v>101919</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2447682592245249</v>
+        <v>0.2447682592245248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2108130311338313</v>
+        <v>0.2101599709991612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2850350346498687</v>
+        <v>0.2870939342505137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1619,19 +1619,19 @@
         <v>135081</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117633</v>
+        <v>117634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153682</v>
+        <v>154850</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2018900379136252</v>
+        <v>0.2018900379136253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1758127502409666</v>
+        <v>0.1758134061856948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2296903259043271</v>
+        <v>0.2314360653326596</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>245177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>230871</v>
+        <v>231233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>258065</v>
+        <v>257690</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7806190953134762</v>
+        <v>0.7806190953134764</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7350696312024969</v>
+        <v>0.7362223300012223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8216535502704089</v>
+        <v>0.8204582958239406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>324</v>
@@ -1669,19 +1669,19 @@
         <v>226047</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210303</v>
+        <v>209695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239998</v>
+        <v>239999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6367452368882139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5923963139331375</v>
+        <v>0.5906837956773634</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6760437739137413</v>
+        <v>0.6760468561482545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>592</v>
@@ -1690,19 +1690,19 @@
         <v>471224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>452491</v>
+        <v>449993</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>493675</v>
+        <v>491581</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7042822283526876</v>
+        <v>0.7042822283526879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6762839769413596</v>
+        <v>0.6725511366249454</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7378364773232051</v>
+        <v>0.7347077675522798</v>
       </c>
     </row>
     <row r="18">
@@ -1794,19 +1794,19 @@
         <v>6554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2336</v>
+        <v>2680</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15521</v>
+        <v>15876</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01775741050372631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006328354142348665</v>
+        <v>0.007260267190692882</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0420532073777666</v>
+        <v>0.04301389578415398</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1815,19 +1815,19 @@
         <v>14030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8295</v>
+        <v>8427</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28312</v>
+        <v>27087</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03356962636236983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01984844125261509</v>
+        <v>0.02016435757199644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06774203952998305</v>
+        <v>0.06481175898712796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1836,19 +1836,19 @@
         <v>20584</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13081</v>
+        <v>12521</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36147</v>
+        <v>35200</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02615418209685374</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01662140786710216</v>
+        <v>0.0159094714168566</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04592870290372068</v>
+        <v>0.04472549679698532</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>8133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4156</v>
+        <v>3996</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16529</v>
+        <v>15668</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02203542238583162</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01125952750146489</v>
+        <v>0.01082577743128013</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04478434703196302</v>
+        <v>0.04245114661893255</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1886,19 +1886,19 @@
         <v>27680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20041</v>
+        <v>20627</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37904</v>
+        <v>37542</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06623089670904606</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0479520459245182</v>
+        <v>0.04935416543295242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09069515440698125</v>
+        <v>0.08982908878318641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1907,19 +1907,19 @@
         <v>35813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26548</v>
+        <v>26240</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47588</v>
+        <v>47083</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04550457475887513</v>
+        <v>0.04550457475887512</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03373247601627392</v>
+        <v>0.03334139437093748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06046632673295886</v>
+        <v>0.05982461169576705</v>
       </c>
     </row>
     <row r="21">
@@ -1936,19 +1936,19 @@
         <v>72310</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56062</v>
+        <v>55178</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93736</v>
+        <v>92258</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1959135144582574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1518920117864652</v>
+        <v>0.1494991597719336</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2539654961101756</v>
+        <v>0.2499617668716296</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>148</v>
@@ -1957,19 +1957,19 @@
         <v>96416</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80943</v>
+        <v>80908</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>111243</v>
+        <v>112968</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2306989885183242</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1936748426813025</v>
+        <v>0.1935919438120345</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2661755408010923</v>
+        <v>0.2703014775567708</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>215</v>
@@ -1978,19 +1978,19 @@
         <v>168726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>142679</v>
+        <v>146028</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>192535</v>
+        <v>194545</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2143856680800013</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1812903715640617</v>
+        <v>0.1855450863187542</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2446374659696882</v>
+        <v>0.247191639665182</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>282092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>260375</v>
+        <v>261465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>300211</v>
+        <v>301264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7642936526521846</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7054519860228436</v>
+        <v>0.7084066764762216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8133833053899776</v>
+        <v>0.8162360718477419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>379</v>
@@ -2028,19 +2028,19 @@
         <v>279806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>260933</v>
+        <v>261294</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>297538</v>
+        <v>297483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.66950048841026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6243432304928859</v>
+        <v>0.6252076270886677</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7119296799892149</v>
+        <v>0.7117966823377724</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>584</v>
@@ -2049,19 +2049,19 @@
         <v>561898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>533075</v>
+        <v>533730</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>589946</v>
+        <v>587615</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7139555750642695</v>
+        <v>0.7139555750642698</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6773323112099457</v>
+        <v>0.6781650376287737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7495934514135778</v>
+        <v>0.7466319222268502</v>
       </c>
     </row>
     <row r="23">
@@ -2153,19 +2153,19 @@
         <v>6593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3134</v>
+        <v>3074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12550</v>
+        <v>13072</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03205807974564464</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01524043345265846</v>
+        <v>0.01494471305582834</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06102320092299891</v>
+        <v>0.06355821271084415</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2174,19 +2174,19 @@
         <v>5598</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3090</v>
+        <v>2982</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9617</v>
+        <v>9197</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02472410632937411</v>
+        <v>0.0247241063293741</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01364634540039721</v>
+        <v>0.013171020262152</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04247073947594948</v>
+        <v>0.04061708934246638</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2195,19 +2195,19 @@
         <v>12192</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7587</v>
+        <v>7527</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18909</v>
+        <v>18819</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02821482403654151</v>
+        <v>0.0282148240365415</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01755839513725793</v>
+        <v>0.01741896697701368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04376083957445611</v>
+        <v>0.04355194696968694</v>
       </c>
     </row>
     <row r="25">
@@ -2224,19 +2224,19 @@
         <v>8602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4730</v>
+        <v>4733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14596</v>
+        <v>14787</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04182760481829836</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02299646533198027</v>
+        <v>0.02301382238997767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07097163768689875</v>
+        <v>0.07189705581102039</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2245,19 +2245,19 @@
         <v>11384</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7744</v>
+        <v>7721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15936</v>
+        <v>16433</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0502749479347737</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03419797731904695</v>
+        <v>0.03409608000937479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07037746808726714</v>
+        <v>0.07257226080766738</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -2266,19 +2266,19 @@
         <v>19986</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14329</v>
+        <v>14701</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26686</v>
+        <v>26881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04625430475521417</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03316128483860472</v>
+        <v>0.03402241080876841</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06175812294864706</v>
+        <v>0.06221071445205846</v>
       </c>
     </row>
     <row r="26">
@@ -2295,19 +2295,19 @@
         <v>101031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87775</v>
+        <v>88016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>113805</v>
+        <v>113414</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4912387674472048</v>
+        <v>0.4912387674472049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4267882500201128</v>
+        <v>0.4279594369387578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5533515268815126</v>
+        <v>0.5514478290294247</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>271</v>
@@ -2316,19 +2316,19 @@
         <v>121588</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110540</v>
+        <v>110390</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133021</v>
+        <v>132835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5369686232888441</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4881755588631851</v>
+        <v>0.4875130832194442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5874572444275784</v>
+        <v>0.5866383544327847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>412</v>
@@ -2337,19 +2337,19 @@
         <v>222619</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>205406</v>
+        <v>205466</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>239127</v>
+        <v>237557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5152027934348006</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4753666022417977</v>
+        <v>0.4755053028944843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5534057576340251</v>
+        <v>0.5497733404259518</v>
       </c>
     </row>
     <row r="27">
@@ -2366,19 +2366,19 @@
         <v>89439</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>77128</v>
+        <v>76678</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>103131</v>
+        <v>102195</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4348755479888521</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3750180210135859</v>
+        <v>0.3728315532596132</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5014521995770435</v>
+        <v>0.496899775183065</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>178</v>
@@ -2387,19 +2387,19 @@
         <v>87864</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>75998</v>
+        <v>76838</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>99859</v>
+        <v>99170</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3880323224470082</v>
+        <v>0.3880323224470081</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3356264356046798</v>
+        <v>0.3393400212066171</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.441007006804072</v>
+        <v>0.4379623780556356</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>294</v>
@@ -2408,19 +2408,19 @@
         <v>177303</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>160338</v>
+        <v>162417</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>195949</v>
+        <v>195804</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4103280777734438</v>
+        <v>0.4103280777734437</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.371067619437574</v>
+        <v>0.3758782733330949</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4534800159857193</v>
+        <v>0.453145511055381</v>
       </c>
     </row>
     <row r="28">
@@ -2512,19 +2512,19 @@
         <v>8717</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4709</v>
+        <v>4845</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14147</v>
+        <v>14059</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03229096844931331</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0174449228500649</v>
+        <v>0.01794757298317901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05240676111417533</v>
+        <v>0.05207905671179597</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2533,19 +2533,19 @@
         <v>7592</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4425</v>
+        <v>4435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12173</v>
+        <v>12085</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02878536737556624</v>
+        <v>0.02878536737556623</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01677680762542154</v>
+        <v>0.01681565756187006</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04615207851218394</v>
+        <v>0.04582051710590553</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -2554,19 +2554,19 @@
         <v>16309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11263</v>
+        <v>11164</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23594</v>
+        <v>22919</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03055854072395859</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02110275016366106</v>
+        <v>0.02091811034214437</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04420874844358475</v>
+        <v>0.0429434777893296</v>
       </c>
     </row>
     <row r="30">
@@ -2583,19 +2583,19 @@
         <v>17457</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11961</v>
+        <v>11658</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24869</v>
+        <v>24287</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06466595343422191</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04430935505659608</v>
+        <v>0.04318394382043201</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09212302158514879</v>
+        <v>0.08996807696314239</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -2604,19 +2604,19 @@
         <v>23762</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17901</v>
+        <v>17648</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30335</v>
+        <v>30869</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09009170215994487</v>
+        <v>0.09009170215994484</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06787229856060133</v>
+        <v>0.06691251649095813</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1150135157825656</v>
+        <v>0.1170399089933463</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>80</v>
@@ -2625,19 +2625,19 @@
         <v>41219</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32284</v>
+        <v>32365</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50565</v>
+        <v>50294</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07723106597946161</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06048985101523174</v>
+        <v>0.06064278242222712</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09474315351116699</v>
+        <v>0.09423574087773381</v>
       </c>
     </row>
     <row r="31">
@@ -2654,19 +2654,19 @@
         <v>46951</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36196</v>
+        <v>37298</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57725</v>
+        <v>58950</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1739230881394004</v>
+        <v>0.1739230881394003</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1340834083243449</v>
+        <v>0.1381635583497149</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2138335019143143</v>
+        <v>0.2183723469607355</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>109</v>
@@ -2675,19 +2675,19 @@
         <v>53199</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>43498</v>
+        <v>43982</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63674</v>
+        <v>64761</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2017021017398441</v>
+        <v>0.201702101739844</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1649218899609996</v>
+        <v>0.1667548999296475</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2414195239303215</v>
+        <v>0.2455393477510336</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>184</v>
@@ -2696,19 +2696,19 @@
         <v>100150</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>86868</v>
+        <v>87251</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>114915</v>
+        <v>114930</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1876511571158782</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1627649295995775</v>
+        <v>0.1634828963008282</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2153163097094075</v>
+        <v>0.2153438932072851</v>
       </c>
     </row>
     <row r="32">
@@ -2725,19 +2725,19 @@
         <v>196829</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>184338</v>
+        <v>182967</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>209257</v>
+        <v>207761</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7291199899770645</v>
+        <v>0.7291199899770644</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6828490271879729</v>
+        <v>0.6777728505554429</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7751567627010816</v>
+        <v>0.7696171649309584</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>283</v>
@@ -2746,19 +2746,19 @@
         <v>179197</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>167069</v>
+        <v>166481</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>190049</v>
+        <v>189702</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.679420828724645</v>
+        <v>0.6794208287246447</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6334360211253933</v>
+        <v>0.6312087549906651</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7205652169998268</v>
+        <v>0.7192504246659682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>535</v>
@@ -2767,19 +2767,19 @@
         <v>376026</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>358603</v>
+        <v>358328</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>392297</v>
+        <v>391572</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7045592361807016</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6719138799052004</v>
+        <v>0.6713991206719226</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7350465442887064</v>
+        <v>0.7336875707348677</v>
       </c>
     </row>
     <row r="33">
@@ -2871,19 +2871,19 @@
         <v>12407</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6792</v>
+        <v>6556</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22788</v>
+        <v>21639</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0172399586084599</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009436803016517564</v>
+        <v>0.009109104736857648</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03166365031771222</v>
+        <v>0.03006742641021131</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -2892,19 +2892,19 @@
         <v>20978</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14218</v>
+        <v>14456</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30477</v>
+        <v>30266</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02724574441794735</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01846548208767714</v>
+        <v>0.01877484623555085</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03958293571418441</v>
+        <v>0.03930945208507115</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -2913,19 +2913,19 @@
         <v>33385</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23822</v>
+        <v>23786</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>45403</v>
+        <v>44882</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02241166960408623</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01599192199592228</v>
+        <v>0.01596764439721679</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03047916944123564</v>
+        <v>0.03012931701886689</v>
       </c>
     </row>
     <row r="35">
@@ -2942,19 +2942,19 @@
         <v>43379</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31770</v>
+        <v>30651</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>61858</v>
+        <v>60286</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06027544489194332</v>
+        <v>0.06027544489194334</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04414357535035956</v>
+        <v>0.04258936579414473</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08595184853132137</v>
+        <v>0.0837671695978021</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2963,19 +2963,19 @@
         <v>54427</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41637</v>
+        <v>42557</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69447</v>
+        <v>69564</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.07068825689693495</v>
+        <v>0.07068825689693496</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05407713770254444</v>
+        <v>0.05527218416475903</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09019565878023512</v>
+        <v>0.09034879531473534</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>105</v>
@@ -2984,19 +2984,19 @@
         <v>97806</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>79684</v>
+        <v>79019</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>119126</v>
+        <v>118019</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0656575363505215</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05349204880755546</v>
+        <v>0.05304540202524907</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07996951049239619</v>
+        <v>0.07922679004656606</v>
       </c>
     </row>
     <row r="36">
@@ -3013,19 +3013,19 @@
         <v>180861</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>156756</v>
+        <v>154839</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>208761</v>
+        <v>208236</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.251305747764934</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2178111988405899</v>
+        <v>0.215147898921654</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2900724798780827</v>
+        <v>0.2893425110994786</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>350</v>
@@ -3034,19 +3034,19 @@
         <v>276124</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>252794</v>
+        <v>252162</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300978</v>
+        <v>301078</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3586235782078955</v>
+        <v>0.3586235782078954</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3283237477429995</v>
+        <v>0.3275023246916127</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3909041363927787</v>
+        <v>0.3910337535981477</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>510</v>
@@ -3055,19 +3055,19 @@
         <v>456985</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>420914</v>
+        <v>421940</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>493859</v>
+        <v>495044</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3067753344916817</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2825608841720746</v>
+        <v>0.2832497516271417</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3315286256994721</v>
+        <v>0.3323242045698447</v>
       </c>
     </row>
     <row r="37">
@@ -3084,19 +3084,19 @@
         <v>483039</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>450542</v>
+        <v>451204</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>508387</v>
+        <v>511117</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6711788487346629</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6260248518240085</v>
+        <v>0.6269451277922868</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7064001748584336</v>
+        <v>0.7101930004823386</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>511</v>
@@ -3105,19 +3105,19 @@
         <v>418426</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>392121</v>
+        <v>392344</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>444677</v>
+        <v>443776</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.543442420477222</v>
+        <v>0.5434424204772221</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5092781516920792</v>
+        <v>0.509568463653216</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5775367606979649</v>
+        <v>0.5763672202680391</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>902</v>
@@ -3126,19 +3126,19 @@
         <v>901464</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>862489</v>
+        <v>863873</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>937445</v>
+        <v>940625</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6051554595537105</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5789910948316416</v>
+        <v>0.5799205472575952</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6293090445872145</v>
+        <v>0.6314440647708822</v>
       </c>
     </row>
     <row r="38">
@@ -3230,19 +3230,19 @@
         <v>27242</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>17911</v>
+        <v>18346</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>38019</v>
+        <v>38350</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03413462185961576</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02244235645769611</v>
+        <v>0.0229883185745765</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04763852556235086</v>
+        <v>0.04805288272691444</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>64</v>
@@ -3251,19 +3251,19 @@
         <v>45063</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>35605</v>
+        <v>34332</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>56503</v>
+        <v>55949</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05420616198741796</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04282936452541882</v>
+        <v>0.04129809671829029</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06796713620887188</v>
+        <v>0.06730058902612208</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>92</v>
@@ -3272,19 +3272,19 @@
         <v>72305</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>57473</v>
+        <v>57738</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>88190</v>
+        <v>87330</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04437524312430102</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03527254773775498</v>
+        <v>0.03543513421201089</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05412425832187257</v>
+        <v>0.05359626437342292</v>
       </c>
     </row>
     <row r="40">
@@ -3301,19 +3301,19 @@
         <v>94740</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>77007</v>
+        <v>78322</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>113018</v>
+        <v>113476</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1187105628932276</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09649142578862163</v>
+        <v>0.09813895719148599</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1416132793853901</v>
+        <v>0.1421870962515117</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>194</v>
@@ -3322,19 +3322,19 @@
         <v>139569</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>120882</v>
+        <v>123239</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>159337</v>
+        <v>159079</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1678857719290135</v>
+        <v>0.1678857719290136</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1454079604679774</v>
+        <v>0.1482424359210822</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1916651185633031</v>
+        <v>0.191355164866529</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>297</v>
@@ -3343,19 +3343,19 @@
         <v>234308</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>207912</v>
+        <v>209913</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>261520</v>
+        <v>261079</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.143800052197024</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1276003210375397</v>
+        <v>0.1288284395052958</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1605004948591028</v>
+        <v>0.1602299715586878</v>
       </c>
     </row>
     <row r="41">
@@ -3372,19 +3372,19 @@
         <v>417509</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>386847</v>
+        <v>387474</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>446882</v>
+        <v>446118</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5231465755217786</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4847271480050776</v>
+        <v>0.4855132047433189</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5599521073466459</v>
+        <v>0.5589947424409941</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>587</v>
@@ -3393,19 +3393,19 @@
         <v>455075</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>432347</v>
+        <v>430075</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>481237</v>
+        <v>479213</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.5474052413785175</v>
+        <v>0.5474052413785176</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5200658877773722</v>
+        <v>0.5173327610208861</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5788752212960067</v>
+        <v>0.5764407821108062</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1011</v>
@@ -3414,19 +3414,19 @@
         <v>872584</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>828083</v>
+        <v>834280</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>910069</v>
+        <v>908682</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.5355234936777157</v>
+        <v>0.5355234936777158</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5082126664804405</v>
+        <v>0.5120156954849334</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5585289003138</v>
+        <v>0.5576779744601553</v>
       </c>
     </row>
     <row r="42">
@@ -3443,19 +3443,19 @@
         <v>258582</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>232877</v>
+        <v>228322</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>291233</v>
+        <v>287142</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.324008239725378</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2917999084282711</v>
+        <v>0.2860925322600739</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.364921295381705</v>
+        <v>0.3597951086174503</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>217</v>
@@ -3464,19 +3464,19 @@
         <v>191624</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>169441</v>
+        <v>170323</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>214537</v>
+        <v>215095</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.230502824705051</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2038193220085862</v>
+        <v>0.2048800360208974</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2580646765377356</v>
+        <v>0.2587361751813493</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>424</v>
@@ -3485,19 +3485,19 @@
         <v>450206</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>412264</v>
+        <v>413588</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>486266</v>
+        <v>487596</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2763012110009593</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2530154446652843</v>
+        <v>0.2538280898619351</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2984318764976333</v>
+        <v>0.2992481502782588</v>
       </c>
     </row>
     <row r="43">
@@ -3589,19 +3589,19 @@
         <v>76707</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>61340</v>
+        <v>60325</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>96379</v>
+        <v>96073</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.021768225659807</v>
+        <v>0.02176822565980699</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01740730077840002</v>
+        <v>0.01711920089921559</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02735086236901489</v>
+        <v>0.02726412247076969</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>174</v>
@@ -3610,19 +3610,19 @@
         <v>113610</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>96244</v>
+        <v>96904</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>131604</v>
+        <v>132521</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.03050385522999362</v>
+        <v>0.03050385522999361</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02584102895614257</v>
+        <v>0.02601827775070275</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0353349890185466</v>
+        <v>0.03558113503070091</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>258</v>
@@ -3631,19 +3631,19 @@
         <v>190317</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>167147</v>
+        <v>168581</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>219369</v>
+        <v>217187</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02625696219998096</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02306031459954526</v>
+        <v>0.02325812406849624</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03026501700377845</v>
+        <v>0.02996404037596997</v>
       </c>
     </row>
     <row r="45">
@@ -3660,19 +3660,19 @@
         <v>199246</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>174630</v>
+        <v>173777</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>229455</v>
+        <v>228138</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05654293014033368</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04955741282481903</v>
+        <v>0.04931520321324125</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06511580968871396</v>
+        <v>0.06474214559828742</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>476</v>
@@ -3681,19 +3681,19 @@
         <v>311448</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>286802</v>
+        <v>284308</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>342653</v>
+        <v>341370</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.08362228791299657</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.07700495680948517</v>
+        <v>0.07633532916179922</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.09200079841078757</v>
+        <v>0.09165613363545722</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>699</v>
@@ -3702,19 +3702,19 @@
         <v>510694</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>471988</v>
+        <v>474049</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>550489</v>
+        <v>552048</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.0704574513253247</v>
+        <v>0.07045745132532472</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.06511751373928927</v>
+        <v>0.06540180928859368</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07594785385924008</v>
+        <v>0.07616293554929296</v>
       </c>
     </row>
     <row r="46">
@@ -3731,19 +3731,19 @@
         <v>1057340</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>996500</v>
+        <v>998683</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1110127</v>
+        <v>1112626</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3000572612995165</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2827918361329289</v>
+        <v>0.2834113918745051</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3150375118793523</v>
+        <v>0.3157466447871872</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1934</v>
@@ -3752,19 +3752,19 @@
         <v>1313142</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1265785</v>
+        <v>1262481</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1368237</v>
+        <v>1365129</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3525723280043298</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3398572822452143</v>
+        <v>0.3389701641297423</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3673652683705884</v>
+        <v>0.3665306915175859</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>3022</v>
@@ -3773,19 +3773,19 @@
         <v>2370482</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2292133</v>
+        <v>2288761</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2448807</v>
+        <v>2446599</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.3270417272654346</v>
+        <v>0.3270417272654347</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3162324972546176</v>
+        <v>0.3157671941514634</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3378477955079299</v>
+        <v>0.3375432454526368</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>2190502</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2136071</v>
+        <v>2129460</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2261042</v>
+        <v>2250300</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.6216315829003429</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6061851068894344</v>
+        <v>0.604308806360665</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6416498857725189</v>
+        <v>0.6386014759992942</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2762</v>
@@ -3823,19 +3823,19 @@
         <v>1986260</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1930411</v>
+        <v>1930847</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2041182</v>
+        <v>2037804</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.53330152885268</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5183061484944959</v>
+        <v>0.5184233648494789</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5480476985142229</v>
+        <v>0.5471408953723509</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4734</v>
@@ -3844,19 +3844,19 @@
         <v>4176762</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4102518</v>
+        <v>4090379</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4259032</v>
+        <v>4263511</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.5762438592092596</v>
+        <v>0.5762438592092598</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5660008824546191</v>
+        <v>0.5643261158011235</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5875942071669676</v>
+        <v>0.5882121465631212</v>
       </c>
     </row>
     <row r="48">
